--- a/CUDA入门(updating)/blocksparse_src.xlsx
+++ b/CUDA入门(updating)/blocksparse_src.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Routhleck\Documents\GitHub\myNotes\CUDA入门(updating)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\myNotes\CUDA入门(updating)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D31C18-5BB2-4707-946E-A865E6CB6320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E42216-A95A-4C10-A56C-6A22C7F4852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22220" yWindow="-2080" windowWidth="15360" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>矩阵乘法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>跟上面的就是`nc`和`cn`的差别，不懂？是width和height的排列顺序不一样？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer_norm_nc_op_gpu.cu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +492,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,32 +546,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -588,6 +582,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -870,19 +884,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="41.9140625" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -910,7 +924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -922,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -934,7 +948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -946,7 +960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -958,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -970,7 +984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -982,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -994,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1006,7 +1020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1018,7 +1032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1030,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1042,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1068,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="23.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1082,7 +1096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1108,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="23.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1148,7 +1162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1174,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -1200,7 +1214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1226,7 +1240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1238,7 +1252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -1250,7 +1264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1262,7 +1276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>72</v>
       </c>
@@ -1276,19 +1290,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -1300,7 +1314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -1326,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -1352,7 +1366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1366,7 +1380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -1378,7 +1392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -1404,7 +1418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -1430,7 +1444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -1442,15 +1456,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A33"/>
@@ -1458,19 +1466,25 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$B$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"cu"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>cu</formula>
     </cfRule>
   </conditionalFormatting>
